--- a/example_submission/submission.xlsx
+++ b/example_submission/submission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manu/Documents/Projects/ShareYourCloning/ShareYourCloning-submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manu/Documents/Projects/ShareYourCloning/ShareYourCloning-submission/example_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB50E1C9-D9D5-714E-8AD1-106E653F48B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C3F9EF-24FE-A44C-BFCA-5A112987FF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="431">
   <si>
     <t>plasmid_name</t>
   </si>
@@ -1327,12 +1327,18 @@
   <si>
     <t>Pre-Assembled URA3 Integration Vector</t>
   </si>
+  <si>
+    <t>MoClo YTK</t>
+  </si>
+  <si>
+    <t>Golden-gate based modular cloning kit for yeast.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1397,6 +1403,21 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1444,7 +1465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1485,6 +1506,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31966,35 +31989,49 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80" customWidth="1"/>
+    <col min="4" max="4" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>321</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C1" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>323</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C2" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="C3" s="7"/>
     </row>
   </sheetData>
@@ -32055,7 +32092,7 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
